--- a/Reagents_Database.xlsx
+++ b/Reagents_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/filippo_lucchini_univr_it/Documents/Progetto Freezer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{18F54961-3EC2-4449-83DD-49FE7735B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A1A8F9-1E7B-44E0-B2C0-7B3A681483D7}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{18F54961-3EC2-4449-83DD-49FE7735B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF59B255-EC74-4A0A-87A9-B3F388491B28}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="48">
   <si>
     <t>Reagent Name</t>
   </si>
@@ -97,16 +97,106 @@
   </si>
   <si>
     <t>Flowcell/Cartridge</t>
+  </si>
+  <si>
+    <t>Frigo 1 - Lab 2.01</t>
+  </si>
+  <si>
+    <t>Cassetto</t>
+  </si>
+  <si>
+    <t>KAPA HyperCapture</t>
+  </si>
+  <si>
+    <t>KAPA Evoplus V2</t>
+  </si>
+  <si>
+    <t>KAPA UDI Primer Mixes</t>
+  </si>
+  <si>
+    <t>KAPA Universal Adapter</t>
+  </si>
+  <si>
+    <t>KAPA HyperExome V2</t>
+  </si>
+  <si>
+    <t>KAPA Probes Resuspension buffer</t>
+  </si>
+  <si>
+    <t>00000119</t>
+  </si>
+  <si>
+    <t>0000647997</t>
+  </si>
+  <si>
+    <t>UDI</t>
+  </si>
+  <si>
+    <t>Mitochondrial Probes</t>
+  </si>
+  <si>
+    <t>Universal Blockers</t>
+  </si>
+  <si>
+    <t>Exome 2.0 + Comp. Spike In Probes</t>
+  </si>
+  <si>
+    <t>Equinox</t>
+  </si>
+  <si>
+    <t>2500006414-014</t>
+  </si>
+  <si>
+    <t>AB Analitica</t>
+  </si>
+  <si>
+    <t>seqWell</t>
+  </si>
+  <si>
+    <t>P1 Cartridge</t>
+  </si>
+  <si>
+    <t>10B Cartridge</t>
+  </si>
+  <si>
+    <t>Kit Ont</t>
+  </si>
+  <si>
+    <t>Genequality WES Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MosaiX </t>
+  </si>
+  <si>
+    <t>FlexPrep</t>
+  </si>
+  <si>
+    <t>WES Sinisa</t>
+  </si>
+  <si>
+    <t>Frigo 2 - Lab Comune 2 Piano</t>
+  </si>
+  <si>
+    <t>Oxford Nanopore</t>
+  </si>
+  <si>
+    <t>Exome 2.5 Plus Updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,8 +222,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -468,23 +565,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819BC2A-29C8-474F-8807-81D8B4A3F6D6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -503,36 +601,539 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>65059200</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45230</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>79295000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45869</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>75703400</v>
+      </c>
+      <c r="E4" s="1">
+        <v>46811</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>83623400</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45991</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <v>46234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>46234</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45976</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2000007951</v>
+      </c>
+      <c r="E9" s="1">
+        <v>46074</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3">
+        <v>52248100</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44651</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D11" s="3">
+        <v>2500005108</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45992</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2500007242</v>
+      </c>
+      <c r="E12" s="1">
+        <v>46099</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1">
+        <v>46388</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3400006273</v>
+      </c>
+      <c r="E14" s="1">
+        <v>46372</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3400006273</v>
+      </c>
+      <c r="E15" s="1">
+        <v>46372</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2500004556</v>
+      </c>
+      <c r="E16" s="1">
+        <v>46261</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2500007542</v>
+      </c>
+      <c r="E17" s="1">
+        <v>46518</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2500005911</v>
+      </c>
+      <c r="E18" s="1">
+        <v>46503</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -541,7 +1142,7 @@
           <x14:formula1>
             <xm:f>'Training Lists'!$B$2:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
+          <xm:sqref>C2:C18 C27:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9D451F9-07DC-404C-B467-79C20B2F5F10}">
           <x14:formula1>
@@ -569,20 +1170,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA5670-41BD-4816-8DF5-A7C6DF91BCB5}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -596,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -610,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -624,7 +1225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -638,14 +1239,80 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Reagents_Database.xlsx
+++ b/Reagents_Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/filippo_lucchini_univr_it/Documents/Progetto Freezer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/filippo_lucchini_univr_it/Documents/Progetto Freezer/MultiPage_DDLAB_Tools-main 03102025/MultiPage_DDLAB_Tools-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{18F54961-3EC2-4449-83DD-49FE7735B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF59B255-EC74-4A0A-87A9-B3F388491B28}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{18F54961-3EC2-4449-83DD-49FE7735B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75BA4FB5-2BA9-44AA-9B7A-E06634F1EC8F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>Reagent Name</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Exome 2.5 Plus Updated</t>
+  </si>
+  <si>
+    <t>Total Reactions</t>
+  </si>
+  <si>
+    <t>Reactions Used</t>
+  </si>
+  <si>
+    <t>Reactions Available</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -231,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -565,24 +575,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819BC2A-29C8-474F-8807-81D8B4A3F6D6}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -599,13 +609,22 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -621,14 +640,24 @@
       <c r="E2" s="1">
         <v>45230</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="4">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>F2-G2</f>
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -644,14 +673,24 @@
       <c r="E3" s="1">
         <v>45869</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H26" si="0">F3-G3</f>
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -667,14 +706,24 @@
       <c r="E4" s="1">
         <v>46811</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -690,14 +739,24 @@
       <c r="E5" s="1">
         <v>45991</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="4">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -713,14 +772,24 @@
       <c r="E6" s="1">
         <v>46234</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="4">
+        <v>96</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -736,14 +805,24 @@
       <c r="E7" s="1">
         <v>46234</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="4">
+        <v>96</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -759,14 +838,24 @@
       <c r="E8" s="1">
         <v>45976</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="4">
+        <v>96</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -782,14 +871,24 @@
       <c r="E9" s="1">
         <v>46074</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="4">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -805,14 +904,24 @@
       <c r="E10" s="1">
         <v>44651</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="4">
+        <v>96</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -828,14 +937,24 @@
       <c r="E11" s="1">
         <v>45992</v>
       </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="4">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -851,14 +970,24 @@
       <c r="E12" s="1">
         <v>46099</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="4">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -874,14 +1003,24 @@
       <c r="E13" s="1">
         <v>46388</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="4">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -897,14 +1036,24 @@
       <c r="E14" s="1">
         <v>46372</v>
       </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="4">
+        <v>96</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -920,14 +1069,24 @@
       <c r="E15" s="1">
         <v>46372</v>
       </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="4">
+        <v>96</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -943,14 +1102,22 @@
       <c r="E16" s="1">
         <v>46261</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -966,14 +1133,24 @@
       <c r="E17" s="1">
         <v>46518</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="4">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -989,14 +1166,24 @@
       <c r="E18" s="1">
         <v>46503</v>
       </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="4">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1006,14 +1193,20 @@
       <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
         <v>45</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1023,14 +1216,20 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1040,14 +1239,20 @@
       <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
         <v>45</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1057,14 +1262,20 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
         <v>45</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1074,14 +1285,20 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>45</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1091,14 +1308,24 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4">
+        <v>300</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I24" t="s">
         <v>45</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1108,14 +1335,20 @@
       <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
         <v>45</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1125,10 +1358,16 @@
       <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>45</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>7</v>
       </c>
     </row>
@@ -1137,7 +1376,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73313D1D-F9B9-4798-981A-E2B9536547AD}">
           <x14:formula1>
             <xm:f>'Training Lists'!$B$2:$B$1048576</xm:f>
@@ -1154,7 +1393,7 @@
           <x14:formula1>
             <xm:f>'Training Lists'!$D$2:$D$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39129143-6EDD-4588-AB95-D2707AE3E171}">
           <x14:formula1>
@@ -1176,14 +1415,14 @@
       <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +1450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1239,7 +1478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1253,7 +1492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1275,42 +1514,42 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>34</v>
       </c>
